--- a/Paint Booth Data Logging.xlsx
+++ b/Paint Booth Data Logging.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
   <si>
     <t>12-06-23 06:27:52(AM)</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>in put from user</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -633,6 +636,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -712,7 +718,6 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1008,7 +1013,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1074,7 +1078,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1100,7 +1104,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A42E05C-5E67-49D7-8522-F8A365C5CC04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A42E05C-5E67-49D7-8522-F8A365C5CC04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1376,7 +1380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1405,11 +1409,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="24"/>
@@ -1510,7 +1514,7 @@
         <f>B8/B9*1000000</f>
         <v>5067.5675675675675</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1522,7 +1526,7 @@
         <f>B10/B11*100</f>
         <v>6.5217391304347823</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="46"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="29" t="s">
@@ -1532,7 +1536,7 @@
         <f>B9/B7*100</f>
         <v>98.666666666666671</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="46"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="29" t="s">
@@ -1542,7 +1546,7 @@
         <f>(B11-B10)/B11*100</f>
         <v>93.478260869565219</v>
       </c>
-      <c r="C15" s="45"/>
+      <c r="C15" s="46"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="29" t="s">
@@ -1552,7 +1556,7 @@
         <f>(B9-B8)/B9*100</f>
         <v>99.493243243243242</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="46"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="29" t="s">
@@ -1562,7 +1566,7 @@
         <f>B14*B15*B16/10000</f>
         <v>91.764492753623188</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="46"/>
     </row>
     <row r="18" spans="1:4" ht="14.4">
       <c r="A18" s="18"/>
@@ -1570,12 +1574,12 @@
       <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
     </row>
     <row r="20" spans="1:4" ht="27.6">
       <c r="A20" s="1" t="s">
@@ -1749,10 +1753,10 @@
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="46"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="7" t="s">
         <v>26</v>
       </c>
@@ -1875,8 +1879,8 @@
       <c r="C41" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
       <c r="H41" s="15"/>
       <c r="I41" s="16"/>
     </row>
@@ -1978,24 +1982,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="37"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
     </row>
@@ -2071,10 +2075,10 @@
       <c r="C9" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="47"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="32">
@@ -2122,77 +2126,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:V21"/>
+  <dimension ref="A2:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="38"/>
-    <col min="2" max="2" width="10.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="38"/>
-    <col min="5" max="5" width="12.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" style="38" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="38" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.44140625" style="38" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" style="38" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="38" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" style="38" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" style="38" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" style="38" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" style="38" customWidth="1"/>
-    <col min="21" max="21" width="13.5546875" style="38" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" style="38" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="38"/>
+    <col min="1" max="1" width="10.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" style="38"/>
+    <col min="4" max="4" width="12.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="38" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.88671875" style="38" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.44140625" style="38" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" style="38" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="38" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="38" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" style="38" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" style="38" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" style="38" customWidth="1"/>
+    <col min="20" max="20" width="13.5546875" style="38" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" style="38" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="38"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="1:21">
+      <c r="A2" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-    </row>
-    <row r="3" spans="2:22" ht="28.8">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+    </row>
+    <row r="3" spans="1:21" ht="28.8">
+      <c r="D3" s="41" t="s">
+        <v>94</v>
+      </c>
       <c r="E3" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="31" t="s">
         <v>94</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>94</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I3" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="31" t="s">
         <v>96</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>100</v>
       </c>
       <c r="L3" s="31" t="s">
         <v>96</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="O3" s="31" t="s">
         <v>94</v>
@@ -2201,7 +2207,7 @@
         <v>94</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R3" s="31" t="s">
         <v>96</v>
@@ -2215,104 +2221,102 @@
       <c r="U3" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="V3" s="31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" ht="28.8">
+    </row>
+    <row r="4" spans="1:21" ht="28.8">
+      <c r="A4" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="B4" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="42" t="s">
         <v>113</v>
       </c>
+      <c r="D4" s="31" t="s">
+        <v>104</v>
+      </c>
       <c r="E4" s="31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="K4" s="31" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="O4" s="31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P4" s="31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R4" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S4" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="T4" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U4" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="V4" s="31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="2:22">
-      <c r="B5" s="39">
+    <row r="5" spans="1:21">
+      <c r="A5" s="39">
         <v>45751</v>
       </c>
-      <c r="C5" s="40">
+      <c r="B5" s="40">
         <v>0.43767361111111114</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="C5" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="D5" s="31" t="s">
         <v>101</v>
       </c>
+      <c r="E5" s="31">
+        <v>1.7</v>
+      </c>
       <c r="F5" s="31">
-        <v>1.7</v>
+        <v>2500</v>
       </c>
       <c r="G5" s="31">
-        <v>2500</v>
+        <v>15</v>
       </c>
       <c r="H5" s="31">
-        <v>15</v>
+        <v>2470</v>
       </c>
       <c r="I5" s="31">
-        <v>2470</v>
-      </c>
-      <c r="J5" s="31">
-        <f>H5+I5</f>
+        <f>G5+H5</f>
         <v>2485</v>
       </c>
+      <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
       <c r="M5" s="31"/>
@@ -2324,12 +2328,12 @@
       <c r="S5" s="31"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-    </row>
-    <row r="6" spans="2:22">
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="31"/>
       <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
@@ -2347,12 +2351,12 @@
       <c r="S6" s="31"/>
       <c r="T6" s="31"/>
       <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-    </row>
-    <row r="7" spans="2:22">
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="31"/>
       <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
@@ -2370,12 +2374,12 @@
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
       <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-    </row>
-    <row r="8" spans="2:22">
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="31"/>
       <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
@@ -2393,12 +2397,12 @@
       <c r="S8" s="31"/>
       <c r="T8" s="31"/>
       <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-    </row>
-    <row r="9" spans="2:22">
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="31"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
@@ -2416,47 +2420,49 @@
       <c r="S9" s="31"/>
       <c r="T9" s="31"/>
       <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-    </row>
-    <row r="15" spans="2:22" ht="28.8">
-      <c r="B15" s="38" t="s">
+    </row>
+    <row r="15" spans="1:21" ht="28.8">
+      <c r="A15" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="C15" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="D15" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="E15" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="F15" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="G15" s="43" t="s">
         <v>116</v>
       </c>
+      <c r="H15" s="42" t="s">
+        <v>96</v>
+      </c>
       <c r="I15" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="42" t="s">
         <v>96</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="42" t="s">
-        <v>100</v>
       </c>
       <c r="L15" s="42" t="s">
         <v>96</v>
       </c>
       <c r="M15" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="N15" s="42" t="s">
         <v>103</v>
+      </c>
+      <c r="N15" s="41" t="s">
+        <v>116</v>
       </c>
       <c r="O15" s="41" t="s">
         <v>116</v>
@@ -2464,8 +2470,8 @@
       <c r="P15" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="Q15" s="41" t="s">
-        <v>116</v>
+      <c r="Q15" s="42" t="s">
+        <v>96</v>
       </c>
       <c r="R15" s="42" t="s">
         <v>96</v>
@@ -2479,104 +2485,102 @@
       <c r="U15" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="V15" s="42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" ht="28.8">
+    </row>
+    <row r="16" spans="1:21" ht="28.8">
+      <c r="A16" s="42" t="s">
+        <v>98</v>
+      </c>
       <c r="B16" s="42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="I16" s="42" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="K16" s="42" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L16" s="42" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M16" s="42" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="N16" s="42" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="O16" s="42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P16" s="42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R16" s="42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S16" s="42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="T16" s="42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U16" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="V16" s="42" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="2:22">
-      <c r="B17" s="39">
+    <row r="17" spans="1:21">
+      <c r="A17" s="39">
         <v>45751</v>
       </c>
-      <c r="C17" s="40">
+      <c r="B17" s="40">
         <v>0.43767361111111114</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="C17" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="D17" s="42" t="s">
         <v>101</v>
       </c>
+      <c r="E17" s="42">
+        <v>1.7</v>
+      </c>
       <c r="F17" s="42">
-        <v>1.7</v>
+        <v>2500</v>
       </c>
       <c r="G17" s="42">
-        <v>2500</v>
+        <v>15</v>
       </c>
       <c r="H17" s="42">
-        <v>15</v>
+        <v>2470</v>
       </c>
       <c r="I17" s="42">
-        <v>2470</v>
-      </c>
-      <c r="J17" s="42">
-        <f>H17+I17</f>
+        <f>G17+H17</f>
         <v>2485</v>
       </c>
+      <c r="J17" s="42"/>
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
@@ -2588,9 +2592,9 @@
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
       <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-    </row>
-    <row r="18" spans="2:22">
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
@@ -2611,9 +2615,9 @@
       <c r="S18" s="42"/>
       <c r="T18" s="42"/>
       <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-    </row>
-    <row r="19" spans="2:22">
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
@@ -2634,9 +2638,9 @@
       <c r="S19" s="42"/>
       <c r="T19" s="42"/>
       <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-    </row>
-    <row r="20" spans="2:22">
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
@@ -2657,9 +2661,9 @@
       <c r="S20" s="42"/>
       <c r="T20" s="42"/>
       <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-    </row>
-    <row r="21" spans="2:22">
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="42"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
       <c r="D21" s="42"/>
@@ -2680,11 +2684,15 @@
       <c r="S21" s="42"/>
       <c r="T21" s="42"/>
       <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="G25" s="38" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
